--- a/Documents/廣韻/廣韻206韻母.xlsx
+++ b/Documents/廣韻/廣韻206韻母.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\Documents\廣韻\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF37F8E6-CC4A-45E0-A2AB-624DC1581A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A813D0-4EFC-4FD8-B9EF-23E027797681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-195" windowWidth="38640" windowHeight="15720" xr2:uid="{C83EFDFF-9EB0-4476-86F0-AEC8EE6ECF50}"/>
+    <workbookView xWindow="28680" yWindow="-195" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{C83EFDFF-9EB0-4476-86F0-AEC8EE6ECF50}"/>
   </bookViews>
   <sheets>
     <sheet name="韻目檢索表" sheetId="3" r:id="rId1"/>
@@ -6727,13 +6727,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D1AEDD3D-FA0D-46E1-B9CB-EE4A082846AB}" name="韻表_3" displayName="韻表_3" ref="B4:K61" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="22" tableBorderDxfId="23" totalsRowBorderDxfId="21" headerRowCellStyle="一般 2 4">
-  <autoFilter ref="B4:K61" xr:uid="{5F784D51-815A-4816-8CA0-E4D283AF85CC}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="寒旱翰曷"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B4:K61" xr:uid="{5F784D51-815A-4816-8CA0-E4D283AF85CC}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{8C5D4156-D10B-4426-A818-3C0CA87D3838}" name="識別號" dataDxfId="20" dataCellStyle="一般 3"/>
     <tableColumn id="7" xr3:uid="{B12CD422-BE37-4F8E-B336-17E7E98B6242}" name="攝" dataDxfId="19" dataCellStyle="一般 3"/>
@@ -7072,10 +7066,10 @@
   </sheetPr>
   <dimension ref="B1:Y61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="J1" sqref="J1:P1048576"/>
-      <selection pane="bottomLeft" activeCell="M66" sqref="M66"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="P111" sqref="P111"/>
+      <selection pane="bottomLeft" activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="41.25" customHeight="1"/>
@@ -7233,7 +7227,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="5" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="5" spans="2:25" ht="41.25" customHeight="1">
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -7284,7 +7278,7 @@
       <c r="X5" s="45"/>
       <c r="Y5" s="46"/>
     </row>
-    <row r="6" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="6" spans="2:25" ht="41.25" customHeight="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
@@ -7331,7 +7325,7 @@
       <c r="X6" s="47"/>
       <c r="Y6" s="48"/>
     </row>
-    <row r="7" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="7" spans="2:25" ht="41.25" customHeight="1">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -7378,7 +7372,7 @@
       <c r="X7" s="45"/>
       <c r="Y7" s="46"/>
     </row>
-    <row r="8" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="8" spans="2:25" ht="41.25" customHeight="1">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -7425,7 +7419,7 @@
       <c r="X8" s="47"/>
       <c r="Y8" s="48"/>
     </row>
-    <row r="9" spans="2:25" ht="33.75" hidden="1">
+    <row r="9" spans="2:25" ht="33.75">
       <c r="B9" s="4">
         <v>5</v>
       </c>
@@ -7472,7 +7466,7 @@
       <c r="X9" s="45"/>
       <c r="Y9" s="46"/>
     </row>
-    <row r="10" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="10" spans="2:25" ht="41.25" customHeight="1">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -7519,7 +7513,7 @@
       <c r="X10" s="47"/>
       <c r="Y10" s="48"/>
     </row>
-    <row r="11" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="11" spans="2:25" ht="41.25" customHeight="1">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -7564,7 +7558,7 @@
       <c r="X11" s="45"/>
       <c r="Y11" s="46"/>
     </row>
-    <row r="12" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="12" spans="2:25" ht="41.25" customHeight="1">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -7611,7 +7605,7 @@
       <c r="X12" s="47"/>
       <c r="Y12" s="48"/>
     </row>
-    <row r="13" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="13" spans="2:25" ht="41.25" customHeight="1">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -7656,7 +7650,7 @@
       <c r="X13" s="45"/>
       <c r="Y13" s="46"/>
     </row>
-    <row r="14" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="14" spans="2:25" ht="41.25" customHeight="1">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -7701,7 +7695,7 @@
       <c r="X14" s="47"/>
       <c r="Y14" s="48"/>
     </row>
-    <row r="15" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="15" spans="2:25" ht="41.25" customHeight="1">
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -7746,7 +7740,7 @@
       <c r="X15" s="45"/>
       <c r="Y15" s="46"/>
     </row>
-    <row r="16" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="16" spans="2:25" ht="41.25" customHeight="1">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -7793,7 +7787,7 @@
       </c>
       <c r="Y16" s="48"/>
     </row>
-    <row r="17" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="17" spans="2:25" ht="41.25" customHeight="1">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -7840,7 +7834,7 @@
       <c r="X17" s="45"/>
       <c r="Y17" s="46"/>
     </row>
-    <row r="18" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="18" spans="2:25" ht="41.25" customHeight="1">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -7887,7 +7881,7 @@
       <c r="X18" s="47"/>
       <c r="Y18" s="48"/>
     </row>
-    <row r="19" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="19" spans="2:25" ht="41.25" customHeight="1">
       <c r="B19" s="4">
         <v>15</v>
       </c>
@@ -7932,7 +7926,7 @@
       <c r="X19" s="45"/>
       <c r="Y19" s="46"/>
     </row>
-    <row r="20" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="20" spans="2:25" ht="41.25" customHeight="1">
       <c r="B20" s="4">
         <v>16</v>
       </c>
@@ -7977,7 +7971,7 @@
       <c r="X20" s="47"/>
       <c r="Y20" s="48"/>
     </row>
-    <row r="21" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="21" spans="2:25" ht="41.25" customHeight="1">
       <c r="B21" s="4">
         <v>17</v>
       </c>
@@ -8024,7 +8018,7 @@
       <c r="X21" s="45"/>
       <c r="Y21" s="46"/>
     </row>
-    <row r="22" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="22" spans="2:25" ht="41.25" customHeight="1">
       <c r="B22" s="4">
         <v>18</v>
       </c>
@@ -8071,7 +8065,7 @@
       <c r="X22" s="47"/>
       <c r="Y22" s="48"/>
     </row>
-    <row r="23" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="23" spans="2:25" ht="41.25" customHeight="1">
       <c r="B23" s="4">
         <v>19</v>
       </c>
@@ -8118,7 +8112,7 @@
       <c r="X23" s="45"/>
       <c r="Y23" s="46"/>
     </row>
-    <row r="24" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="24" spans="2:25" ht="41.25" customHeight="1">
       <c r="B24" s="4">
         <v>20</v>
       </c>
@@ -8165,7 +8159,7 @@
       <c r="X24" s="47"/>
       <c r="Y24" s="48"/>
     </row>
-    <row r="25" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="25" spans="2:25" ht="41.25" customHeight="1">
       <c r="B25" s="4">
         <v>21</v>
       </c>
@@ -8212,7 +8206,7 @@
       <c r="X25" s="45"/>
       <c r="Y25" s="46"/>
     </row>
-    <row r="26" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="26" spans="2:25" ht="41.25" customHeight="1">
       <c r="B26" s="4">
         <v>22</v>
       </c>
@@ -8263,7 +8257,7 @@
       <c r="X26" s="47"/>
       <c r="Y26" s="48"/>
     </row>
-    <row r="27" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="27" spans="2:25" ht="41.25" customHeight="1">
       <c r="B27" s="4">
         <v>23</v>
       </c>
@@ -8310,7 +8304,7 @@
       <c r="X27" s="45"/>
       <c r="Y27" s="46"/>
     </row>
-    <row r="28" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="28" spans="2:25" ht="41.25" customHeight="1">
       <c r="B28" s="4">
         <v>24</v>
       </c>
@@ -8402,7 +8396,7 @@
       <c r="X29" s="45"/>
       <c r="Y29" s="46"/>
     </row>
-    <row r="30" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="30" spans="2:25" ht="41.25" customHeight="1">
       <c r="B30" s="4">
         <v>26</v>
       </c>
@@ -8449,7 +8443,7 @@
       <c r="X30" s="47"/>
       <c r="Y30" s="48"/>
     </row>
-    <row r="31" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="31" spans="2:25" ht="41.25" customHeight="1">
       <c r="B31" s="4">
         <v>27</v>
       </c>
@@ -8500,7 +8494,7 @@
       <c r="X31" s="45"/>
       <c r="Y31" s="46"/>
     </row>
-    <row r="32" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="32" spans="2:25" ht="41.25" customHeight="1">
       <c r="B32" s="4">
         <v>28</v>
       </c>
@@ -8551,7 +8545,7 @@
       <c r="X32" s="47"/>
       <c r="Y32" s="48"/>
     </row>
-    <row r="33" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="33" spans="2:25" ht="41.25" customHeight="1">
       <c r="B33" s="4">
         <v>29</v>
       </c>
@@ -8598,7 +8592,7 @@
       <c r="X33" s="45"/>
       <c r="Y33" s="46"/>
     </row>
-    <row r="34" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="34" spans="2:25" ht="41.25" customHeight="1">
       <c r="B34" s="4">
         <v>30</v>
       </c>
@@ -8649,7 +8643,7 @@
       <c r="X34" s="47"/>
       <c r="Y34" s="48"/>
     </row>
-    <row r="35" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="35" spans="2:25" ht="41.25" customHeight="1">
       <c r="B35" s="4">
         <v>31</v>
       </c>
@@ -8694,7 +8688,7 @@
       <c r="X35" s="45"/>
       <c r="Y35" s="46"/>
     </row>
-    <row r="36" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="36" spans="2:25" ht="41.25" customHeight="1">
       <c r="B36" s="4">
         <v>32</v>
       </c>
@@ -8739,7 +8733,7 @@
       <c r="X36" s="47"/>
       <c r="Y36" s="48"/>
     </row>
-    <row r="37" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="37" spans="2:25" ht="41.25" customHeight="1">
       <c r="B37" s="4">
         <v>33</v>
       </c>
@@ -8784,7 +8778,7 @@
       <c r="X37" s="45"/>
       <c r="Y37" s="46"/>
     </row>
-    <row r="38" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="38" spans="2:25" ht="41.25" customHeight="1">
       <c r="B38" s="4">
         <v>34</v>
       </c>
@@ -8829,7 +8823,7 @@
       <c r="X38" s="47"/>
       <c r="Y38" s="48"/>
     </row>
-    <row r="39" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="39" spans="2:25" ht="41.25" customHeight="1">
       <c r="B39" s="4">
         <v>35</v>
       </c>
@@ -8874,7 +8868,7 @@
       <c r="X39" s="45"/>
       <c r="Y39" s="46"/>
     </row>
-    <row r="40" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="40" spans="2:25" ht="41.25" customHeight="1">
       <c r="B40" s="4">
         <v>36</v>
       </c>
@@ -8919,7 +8913,7 @@
       <c r="X40" s="47"/>
       <c r="Y40" s="48"/>
     </row>
-    <row r="41" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="41" spans="2:25" ht="41.25" customHeight="1">
       <c r="B41" s="4">
         <v>37</v>
       </c>
@@ -8968,7 +8962,7 @@
       <c r="X41" s="45"/>
       <c r="Y41" s="46"/>
     </row>
-    <row r="42" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="42" spans="2:25" ht="41.25" customHeight="1">
       <c r="B42" s="4">
         <v>38</v>
       </c>
@@ -9015,7 +9009,7 @@
       <c r="X42" s="47"/>
       <c r="Y42" s="48"/>
     </row>
-    <row r="43" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="43" spans="2:25" ht="41.25" customHeight="1">
       <c r="B43" s="4">
         <v>39</v>
       </c>
@@ -9062,7 +9056,7 @@
       <c r="X43" s="45"/>
       <c r="Y43" s="46"/>
     </row>
-    <row r="44" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="44" spans="2:25" ht="41.25" customHeight="1">
       <c r="B44" s="4">
         <v>40</v>
       </c>
@@ -9109,7 +9103,7 @@
       <c r="X44" s="47"/>
       <c r="Y44" s="48"/>
     </row>
-    <row r="45" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="45" spans="2:25" ht="41.25" customHeight="1">
       <c r="B45" s="4">
         <v>41</v>
       </c>
@@ -9156,7 +9150,7 @@
       <c r="X45" s="45"/>
       <c r="Y45" s="46"/>
     </row>
-    <row r="46" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="46" spans="2:25" ht="41.25" customHeight="1">
       <c r="B46" s="4">
         <v>42</v>
       </c>
@@ -9203,7 +9197,7 @@
       <c r="X46" s="47"/>
       <c r="Y46" s="48"/>
     </row>
-    <row r="47" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="47" spans="2:25" ht="41.25" customHeight="1">
       <c r="B47" s="4">
         <v>43</v>
       </c>
@@ -9250,7 +9244,7 @@
       <c r="X47" s="45"/>
       <c r="Y47" s="46"/>
     </row>
-    <row r="48" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="48" spans="2:25" ht="41.25" customHeight="1">
       <c r="B48" s="4">
         <v>44</v>
       </c>
@@ -9297,7 +9291,7 @@
       <c r="X48" s="47"/>
       <c r="Y48" s="48"/>
     </row>
-    <row r="49" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="49" spans="2:25" ht="41.25" customHeight="1">
       <c r="B49" s="4">
         <v>45</v>
       </c>
@@ -9344,7 +9338,7 @@
       <c r="X49" s="45"/>
       <c r="Y49" s="46"/>
     </row>
-    <row r="50" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="50" spans="2:25" ht="41.25" customHeight="1">
       <c r="B50" s="4">
         <v>46</v>
       </c>
@@ -9389,7 +9383,7 @@
       <c r="X50" s="47"/>
       <c r="Y50" s="48"/>
     </row>
-    <row r="51" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="51" spans="2:25" ht="41.25" customHeight="1">
       <c r="B51" s="4">
         <v>47</v>
       </c>
@@ -9434,7 +9428,7 @@
       <c r="X51" s="45"/>
       <c r="Y51" s="46"/>
     </row>
-    <row r="52" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="52" spans="2:25" ht="41.25" customHeight="1">
       <c r="B52" s="4">
         <v>48</v>
       </c>
@@ -9479,7 +9473,7 @@
       <c r="X52" s="47"/>
       <c r="Y52" s="48"/>
     </row>
-    <row r="53" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="53" spans="2:25" ht="41.25" customHeight="1">
       <c r="B53" s="4">
         <v>49</v>
       </c>
@@ -9526,7 +9520,7 @@
       <c r="X53" s="45"/>
       <c r="Y53" s="46"/>
     </row>
-    <row r="54" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="54" spans="2:25" ht="41.25" customHeight="1">
       <c r="B54" s="4">
         <v>50</v>
       </c>
@@ -9573,7 +9567,7 @@
       <c r="X54" s="47"/>
       <c r="Y54" s="48"/>
     </row>
-    <row r="55" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="55" spans="2:25" ht="41.25" customHeight="1">
       <c r="B55" s="4">
         <v>51</v>
       </c>
@@ -9620,7 +9614,7 @@
       <c r="X55" s="45"/>
       <c r="Y55" s="46"/>
     </row>
-    <row r="56" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="56" spans="2:25" ht="41.25" customHeight="1">
       <c r="B56" s="4">
         <v>52</v>
       </c>
@@ -9667,7 +9661,7 @@
       <c r="X56" s="47"/>
       <c r="Y56" s="48"/>
     </row>
-    <row r="57" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="57" spans="2:25" ht="41.25" customHeight="1">
       <c r="B57" s="4">
         <v>53</v>
       </c>
@@ -9714,7 +9708,7 @@
       <c r="X57" s="45"/>
       <c r="Y57" s="46"/>
     </row>
-    <row r="58" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="58" spans="2:25" ht="41.25" customHeight="1">
       <c r="B58" s="4">
         <v>54</v>
       </c>
@@ -9761,7 +9755,7 @@
       <c r="X58" s="47"/>
       <c r="Y58" s="48"/>
     </row>
-    <row r="59" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="59" spans="2:25" ht="41.25" customHeight="1">
       <c r="B59" s="4">
         <v>55</v>
       </c>
@@ -9808,7 +9802,7 @@
       <c r="X59" s="45"/>
       <c r="Y59" s="46"/>
     </row>
-    <row r="60" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="60" spans="2:25" ht="41.25" customHeight="1">
       <c r="B60" s="4">
         <v>56</v>
       </c>
@@ -9855,7 +9849,7 @@
       <c r="X60" s="47"/>
       <c r="Y60" s="48"/>
     </row>
-    <row r="61" spans="2:25" ht="41.25" hidden="1" customHeight="1">
+    <row r="61" spans="2:25" ht="41.25" customHeight="1">
       <c r="B61" s="4">
         <v>57</v>
       </c>
@@ -9932,12 +9926,12 @@
   </sheetPr>
   <dimension ref="B1:Q101"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="9" ySplit="3" topLeftCell="J90" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="J1" sqref="J1:P1048576"/>
-      <selection pane="topRight" activeCell="J1" sqref="J1:P1048576"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1:P1048576"/>
-      <selection pane="bottomRight" activeCell="Z10" sqref="Z10"/>
+      <selection activeCell="N35" sqref="N35"/>
+      <selection pane="topRight" activeCell="N35" sqref="N35"/>
+      <selection pane="bottomLeft" activeCell="N35" sqref="N35"/>
+      <selection pane="bottomRight" activeCell="W101" sqref="W101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="30" outlineLevelCol="1"/>
